--- a/data_xlsx/中国_金融机构_外汇各项存款余额.xlsx
+++ b/data_xlsx/中国_金融机构_外汇各项存款余额.xlsx
@@ -1866,8 +1866,16 @@
         <v>8518.0</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="3" t="inlineStr">
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>45107.0</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>8374.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/中国_金融机构_外汇各项存款余额.xlsx
+++ b/data_xlsx/中国_金融机构_外汇各项存款余额.xlsx
@@ -1874,8 +1874,16 @@
         <v>8374.0</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="3" t="inlineStr">
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>8218.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
